--- a/output/StructureDefinition-c-biological-sex.xlsx
+++ b/output/StructureDefinition-c-biological-sex.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T11:27:05+01:00</t>
+    <t>2023-03-23T14:41:29+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-c-biological-sex.xlsx
+++ b/output/StructureDefinition-c-biological-sex.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T14:41:29+01:00</t>
+    <t>2023-03-27T14:34:38+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4779,7 +4779,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>92</v>
@@ -6231,7 +6231,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>92</v>

--- a/output/StructureDefinition-c-biological-sex.xlsx
+++ b/output/StructureDefinition-c-biological-sex.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-27T14:34:38+02:00</t>
+    <t>2023-03-28T14:13:32+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-c-biological-sex.xlsx
+++ b/output/StructureDefinition-c-biological-sex.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T14:13:32+02:00</t>
+    <t>2023-03-28T16:37:13+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-c-biological-sex.xlsx
+++ b/output/StructureDefinition-c-biological-sex.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$99</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2926" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3850" uniqueCount="581">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T16:37:13+02:00</t>
+    <t>2023-03-28T22:15:03+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -632,7 +632,7 @@
     <t>Observation.category</t>
   </si>
   <si>
-    <t>2</t>
+    <t>4</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
@@ -676,13 +676,13 @@
     <t>FiveWs.class</t>
   </si>
   <si>
-    <t>Observation.category:Gender</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Observation.category:Gender.id</t>
+    <t>Observation.category:Gender_UMLS</t>
+  </si>
+  <si>
+    <t>Gender_UMLS</t>
+  </si>
+  <si>
+    <t>Observation.category:Gender_UMLS.id</t>
   </si>
   <si>
     <t>Observation.category.id</t>
@@ -701,7 +701,7 @@
     <t>Element.id</t>
   </si>
   <si>
-    <t>Observation.category:Gender.extension</t>
+    <t>Observation.category:Gender_UMLS.extension</t>
   </si>
   <si>
     <t>Observation.category.extension</t>
@@ -713,7 +713,7 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>Observation.category:Gender.coding</t>
+    <t>Observation.category:Gender_UMLS.coding</t>
   </si>
   <si>
     <t>Observation.category.coding</t>
@@ -744,19 +744,19 @@
     <t>union(., ./translation)</t>
   </si>
   <si>
-    <t>Observation.category:Gender.coding.id</t>
+    <t>Observation.category:Gender_UMLS.coding.id</t>
   </si>
   <si>
     <t>Observation.category.coding.id</t>
   </si>
   <si>
-    <t>Observation.category:Gender.coding.extension</t>
+    <t>Observation.category:Gender_UMLS.coding.extension</t>
   </si>
   <si>
     <t>Observation.category.coding.extension</t>
   </si>
   <si>
-    <t>Observation.category:Gender.coding.system</t>
+    <t>Observation.category:Gender_UMLS.coding.system</t>
   </si>
   <si>
     <t>Observation.category.coding.system</t>
@@ -774,7 +774,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://snomed.info/sct</t>
+    <t>http://terminology.hl7.org/CodeSystem/umls</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -786,7 +786,7 @@
     <t>./codeSystem</t>
   </si>
   <si>
-    <t>Observation.category:Gender.coding.version</t>
+    <t>Observation.category:Gender_UMLS.coding.version</t>
   </si>
   <si>
     <t>Observation.category.coding.version</t>
@@ -810,7 +810,7 @@
     <t>./codeSystemVersion</t>
   </si>
   <si>
-    <t>Observation.category:Gender.coding.code</t>
+    <t>Observation.category:Gender_UMLS.coding.code</t>
   </si>
   <si>
     <t>Observation.category.coding.code</t>
@@ -828,7 +828,7 @@
     <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
-    <t>263495000</t>
+    <t>C0079399</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -840,7 +840,7 @@
     <t>./code</t>
   </si>
   <si>
-    <t>Observation.category:Gender.coding.display</t>
+    <t>Observation.category:Gender_UMLS.coding.display</t>
   </si>
   <si>
     <t>Observation.category.coding.display</t>
@@ -864,7 +864,7 @@
     <t>CV.displayName</t>
   </si>
   <si>
-    <t>Observation.category:Gender.coding.userSelected</t>
+    <t>Observation.category:Gender_UMLS.coding.userSelected</t>
   </si>
   <si>
     <t>Observation.category.coding.userSelected</t>
@@ -895,7 +895,7 @@
     <t>CD.codingRationale</t>
   </si>
   <si>
-    <t>Observation.category:Gender.text</t>
+    <t>Observation.category:Gender_UMLS.text</t>
   </si>
   <si>
     <t>Observation.category.text</t>
@@ -922,46 +922,133 @@
     <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
-    <t>Observation.category:BiologicalSex</t>
-  </si>
-  <si>
-    <t>BiologicalSex</t>
-  </si>
-  <si>
-    <t>Observation.category:BiologicalSex.id</t>
-  </si>
-  <si>
-    <t>Observation.category:BiologicalSex.extension</t>
-  </si>
-  <si>
-    <t>Observation.category:BiologicalSex.coding</t>
-  </si>
-  <si>
-    <t>Observation.category:BiologicalSex.coding.id</t>
-  </si>
-  <si>
-    <t>Observation.category:BiologicalSex.coding.extension</t>
-  </si>
-  <si>
-    <t>Observation.category:BiologicalSex.coding.system</t>
-  </si>
-  <si>
-    <t>Observation.category:BiologicalSex.coding.version</t>
-  </si>
-  <si>
-    <t>Observation.category:BiologicalSex.coding.code</t>
+    <t>Observation.category:Gender_SNOMED</t>
+  </si>
+  <si>
+    <t>Gender_SNOMED</t>
+  </si>
+  <si>
+    <t>Observation.category:Gender_SNOMED.id</t>
+  </si>
+  <si>
+    <t>Observation.category:Gender_SNOMED.extension</t>
+  </si>
+  <si>
+    <t>Observation.category:Gender_SNOMED.coding</t>
+  </si>
+  <si>
+    <t>Observation.category:Gender_SNOMED.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.category:Gender_SNOMED.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.category:Gender_SNOMED.coding.system</t>
+  </si>
+  <si>
+    <t>http://snomed.info/sct</t>
+  </si>
+  <si>
+    <t>Observation.category:Gender_SNOMED.coding.version</t>
+  </si>
+  <si>
+    <t>Observation.category:Gender_SNOMED.coding.code</t>
+  </si>
+  <si>
+    <t>263495000</t>
+  </si>
+  <si>
+    <t>Observation.category:Gender_SNOMED.coding.display</t>
+  </si>
+  <si>
+    <t>Observation.category:Gender_SNOMED.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Observation.category:Gender_SNOMED.text</t>
+  </si>
+  <si>
+    <t>Observation.category:BiologicalSex_UMLS</t>
+  </si>
+  <si>
+    <t>BiologicalSex_UMLS</t>
+  </si>
+  <si>
+    <t>Observation.category:BiologicalSex_UMLS.id</t>
+  </si>
+  <si>
+    <t>Observation.category:BiologicalSex_UMLS.extension</t>
+  </si>
+  <si>
+    <t>Observation.category:BiologicalSex_UMLS.coding</t>
+  </si>
+  <si>
+    <t>Observation.category:BiologicalSex_UMLS.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.category:BiologicalSex_UMLS.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.category:BiologicalSex_UMLS.coding.system</t>
+  </si>
+  <si>
+    <t>Observation.category:BiologicalSex_UMLS.coding.version</t>
+  </si>
+  <si>
+    <t>Observation.category:BiologicalSex_UMLS.coding.code</t>
+  </si>
+  <si>
+    <t>C1522384</t>
+  </si>
+  <si>
+    <t>Observation.category:BiologicalSex_UMLS.coding.display</t>
+  </si>
+  <si>
+    <t>Observation.category:BiologicalSex_UMLS.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Observation.category:BiologicalSex_UMLS.text</t>
+  </si>
+  <si>
+    <t>Observation.category:BiologicalSex_SNOMED</t>
+  </si>
+  <si>
+    <t>BiologicalSex_SNOMED</t>
+  </si>
+  <si>
+    <t>Observation.category:BiologicalSex_SNOMED.id</t>
+  </si>
+  <si>
+    <t>Observation.category:BiologicalSex_SNOMED.extension</t>
+  </si>
+  <si>
+    <t>Observation.category:BiologicalSex_SNOMED.coding</t>
+  </si>
+  <si>
+    <t>Observation.category:BiologicalSex_SNOMED.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.category:BiologicalSex_SNOMED.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.category:BiologicalSex_SNOMED.coding.system</t>
+  </si>
+  <si>
+    <t>Observation.category:BiologicalSex_SNOMED.coding.version</t>
+  </si>
+  <si>
+    <t>Observation.category:BiologicalSex_SNOMED.coding.code</t>
   </si>
   <si>
     <t>734000001</t>
   </si>
   <si>
-    <t>Observation.category:BiologicalSex.coding.display</t>
-  </si>
-  <si>
-    <t>Observation.category:BiologicalSex.coding.userSelected</t>
-  </si>
-  <si>
-    <t>Observation.category:BiologicalSex.text</t>
+    <t>Observation.category:BiologicalSex_SNOMED.coding.display</t>
+  </si>
+  <si>
+    <t>Observation.category:BiologicalSex_SNOMED.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Observation.category:BiologicalSex_SNOMED.text</t>
   </si>
   <si>
     <t>Observation.code</t>
@@ -2056,7 +2143,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP75"/>
+  <dimension ref="A1:AP99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2065,9 +2152,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="51.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="60.35546875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="43.60546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.65234375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="21.9453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -6143,7 +6230,7 @@
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>243</v>
+        <v>300</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>82</v>
@@ -6220,7 +6307,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>248</v>
@@ -6340,7 +6427,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>256</v>
@@ -6385,7 +6472,7 @@
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>82</v>
@@ -6462,7 +6549,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>266</v>
@@ -6584,7 +6671,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>274</v>
@@ -6706,7 +6793,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>284</v>
@@ -6828,14 +6915,16 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="C40" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="D40" t="s" s="2">
-        <v>307</v>
+        <v>82</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6845,28 +6934,28 @@
         <v>92</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>198</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>308</v>
+        <v>199</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>309</v>
+        <v>200</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>310</v>
+        <v>201</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>311</v>
+        <v>202</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -6891,13 +6980,13 @@
         <v>82</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>312</v>
+        <v>119</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>313</v>
+        <v>203</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>314</v>
+        <v>204</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>82</v>
@@ -6915,13 +7004,13 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>306</v>
+        <v>196</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>104</v>
@@ -6930,30 +7019,30 @@
         <v>105</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>315</v>
+        <v>82</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>316</v>
+        <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>317</v>
+        <v>208</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>318</v>
+        <v>209</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>319</v>
+        <v>210</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>320</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>321</v>
+        <v>214</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6973,23 +7062,19 @@
         <v>82</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>322</v>
+        <v>215</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>323</v>
+        <v>216</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>82</v>
       </c>
@@ -7037,7 +7122,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>321</v>
+        <v>218</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7046,25 +7131,25 @@
         <v>92</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>170</v>
+        <v>82</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>327</v>
+        <v>82</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>328</v>
+        <v>82</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>329</v>
+        <v>113</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>330</v>
+        <v>82</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>82</v>
@@ -7072,14 +7157,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>331</v>
+        <v>220</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -7095,19 +7180,19 @@
         <v>82</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>332</v>
+        <v>140</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>333</v>
+        <v>141</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>334</v>
+        <v>221</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>335</v>
+        <v>143</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7145,19 +7230,19 @@
         <v>82</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>331</v>
+        <v>222</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7169,7 +7254,7 @@
         <v>104</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>82</v>
@@ -7178,13 +7263,13 @@
         <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>317</v>
+        <v>82</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>336</v>
+        <v>106</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>330</v>
+        <v>82</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>82</v>
@@ -7192,21 +7277,21 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>337</v>
+        <v>311</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>337</v>
+        <v>224</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>338</v>
+        <v>82</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>82</v>
@@ -7218,19 +7303,19 @@
         <v>93</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>339</v>
+        <v>225</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>340</v>
+        <v>226</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>341</v>
+        <v>227</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>342</v>
+        <v>228</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>343</v>
+        <v>229</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>82</v>
@@ -7279,34 +7364,34 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>337</v>
+        <v>230</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>344</v>
+        <v>82</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>345</v>
+        <v>231</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>346</v>
+        <v>232</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>347</v>
+        <v>82</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>82</v>
@@ -7314,14 +7399,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>348</v>
+        <v>312</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>348</v>
+        <v>234</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>349</v>
+        <v>82</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7337,23 +7422,19 @@
         <v>82</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>350</v>
+        <v>215</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>351</v>
+        <v>216</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>82</v>
       </c>
@@ -7401,7 +7482,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>348</v>
+        <v>218</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7410,25 +7491,25 @@
         <v>92</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>355</v>
+        <v>82</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>356</v>
+        <v>82</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>357</v>
+        <v>113</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>358</v>
+        <v>82</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>82</v>
@@ -7436,21 +7517,21 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>359</v>
+        <v>313</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>359</v>
+        <v>236</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>82</v>
@@ -7459,19 +7540,19 @@
         <v>82</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>360</v>
+        <v>140</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>361</v>
+        <v>141</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>362</v>
+        <v>221</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>363</v>
+        <v>143</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7509,31 +7590,31 @@
         <v>82</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>359</v>
+        <v>222</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>82</v>
@@ -7542,13 +7623,13 @@
         <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>364</v>
+        <v>82</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>365</v>
+        <v>106</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>366</v>
+        <v>82</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>82</v>
@@ -7556,10 +7637,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>367</v>
+        <v>314</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>367</v>
+        <v>238</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7567,10 +7648,10 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>82</v>
@@ -7582,26 +7663,26 @@
         <v>93</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>368</v>
+        <v>108</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>369</v>
+        <v>239</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>370</v>
+        <v>240</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>168</v>
+        <v>241</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>371</v>
+        <v>242</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>82</v>
+        <v>243</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>82</v>
@@ -7643,34 +7724,34 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>367</v>
+        <v>244</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>372</v>
+        <v>82</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>373</v>
+        <v>245</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>374</v>
+        <v>246</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>375</v>
+        <v>82</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>82</v>
@@ -7678,10 +7759,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>376</v>
+        <v>315</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>376</v>
+        <v>248</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7704,20 +7785,18 @@
         <v>93</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>377</v>
+        <v>215</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>378</v>
+        <v>249</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>379</v>
+        <v>250</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>82</v>
       </c>
@@ -7765,7 +7844,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>376</v>
+        <v>252</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7774,7 +7853,7 @@
         <v>92</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>382</v>
+        <v>104</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>105</v>
@@ -7783,27 +7862,27 @@
         <v>82</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>383</v>
+        <v>82</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>384</v>
+        <v>253</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>385</v>
+        <v>254</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>386</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>387</v>
+        <v>316</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>387</v>
+        <v>256</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7811,7 +7890,7 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>92</v>
@@ -7823,29 +7902,29 @@
         <v>82</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>198</v>
+        <v>115</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>388</v>
+        <v>257</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>389</v>
+        <v>258</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>390</v>
+        <v>259</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>391</v>
+        <v>260</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>82</v>
+        <v>317</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>82</v>
@@ -7863,13 +7942,13 @@
         <v>82</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>392</v>
+        <v>82</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>393</v>
+        <v>82</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>394</v>
+        <v>82</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>82</v>
@@ -7887,7 +7966,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>387</v>
+        <v>262</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7896,7 +7975,7 @@
         <v>92</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>395</v>
+        <v>104</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>105</v>
@@ -7908,10 +7987,10 @@
         <v>82</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>106</v>
+        <v>263</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>396</v>
+        <v>264</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -7922,21 +8001,21 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>397</v>
+        <v>318</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>397</v>
+        <v>266</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>398</v>
+        <v>82</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>82</v>
@@ -7945,22 +8024,22 @@
         <v>82</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>399</v>
+        <v>267</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>400</v>
+        <v>268</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>401</v>
+        <v>259</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>402</v>
+        <v>269</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
@@ -7985,13 +8064,13 @@
         <v>82</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>392</v>
+        <v>82</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>403</v>
+        <v>82</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>404</v>
+        <v>82</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>82</v>
@@ -8009,13 +8088,13 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>397</v>
+        <v>270</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>104</v>
@@ -8027,27 +8106,27 @@
         <v>82</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>405</v>
+        <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>406</v>
+        <v>271</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>407</v>
+        <v>272</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>408</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>409</v>
+        <v>319</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>409</v>
+        <v>274</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8058,7 +8137,7 @@
         <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>82</v>
@@ -8067,22 +8146,22 @@
         <v>82</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>410</v>
+        <v>275</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>411</v>
+        <v>276</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>412</v>
+        <v>277</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>413</v>
+        <v>278</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>414</v>
+        <v>279</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -8131,13 +8210,13 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>409</v>
+        <v>280</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>104</v>
@@ -8152,10 +8231,10 @@
         <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>415</v>
+        <v>281</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>416</v>
+        <v>282</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8166,10 +8245,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>417</v>
+        <v>320</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>417</v>
+        <v>284</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8189,21 +8268,23 @@
         <v>82</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>418</v>
+        <v>285</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>419</v>
+        <v>286</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="O51" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
       </c>
@@ -8227,13 +8308,13 @@
         <v>82</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>312</v>
+        <v>82</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>421</v>
+        <v>82</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>422</v>
+        <v>82</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>82</v>
@@ -8251,7 +8332,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>417</v>
+        <v>289</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8269,41 +8350,43 @@
         <v>82</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>423</v>
+        <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>424</v>
+        <v>290</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>425</v>
+        <v>291</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>426</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>427</v>
+        <v>321</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="C52" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="C52" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="D52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>82</v>
@@ -8315,16 +8398,16 @@
         <v>198</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>428</v>
+        <v>199</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>429</v>
+        <v>200</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>430</v>
+        <v>201</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>431</v>
+        <v>202</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8349,13 +8432,13 @@
         <v>82</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>312</v>
+        <v>119</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>432</v>
+        <v>203</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>433</v>
+        <v>204</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
@@ -8373,13 +8456,13 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>427</v>
+        <v>196</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>104</v>
@@ -8394,13 +8477,13 @@
         <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>434</v>
+        <v>208</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>435</v>
+        <v>209</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>82</v>
+        <v>210</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>82</v>
@@ -8408,10 +8491,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>436</v>
+        <v>323</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>436</v>
+        <v>214</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8434,17 +8517,15 @@
         <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>437</v>
+        <v>215</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>438</v>
+        <v>216</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>440</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>82</v>
@@ -8493,7 +8574,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>436</v>
+        <v>218</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8502,47 +8583,47 @@
         <v>92</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>170</v>
+        <v>82</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>441</v>
+        <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>442</v>
+        <v>82</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>443</v>
+        <v>113</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>444</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>445</v>
+        <v>324</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>445</v>
+        <v>220</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>82</v>
@@ -8554,16 +8635,16 @@
         <v>82</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>446</v>
+        <v>140</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>447</v>
+        <v>141</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>448</v>
+        <v>221</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>449</v>
+        <v>143</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8601,57 +8682,57 @@
         <v>82</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>445</v>
+        <v>222</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>450</v>
+        <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>451</v>
+        <v>82</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>452</v>
+        <v>106</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP54" t="s" s="2">
-        <v>453</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>454</v>
+        <v>325</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>454</v>
+        <v>224</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8659,7 +8740,7 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>81</v>
@@ -8671,22 +8752,22 @@
         <v>82</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>455</v>
+        <v>225</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>456</v>
+        <v>226</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>457</v>
+        <v>227</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>458</v>
+        <v>228</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>459</v>
+        <v>229</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>82</v>
@@ -8735,7 +8816,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>454</v>
+        <v>230</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8747,7 +8828,7 @@
         <v>104</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>460</v>
+        <v>105</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>82</v>
@@ -8756,10 +8837,10 @@
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>461</v>
+        <v>231</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>462</v>
+        <v>232</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -8770,10 +8851,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>463</v>
+        <v>326</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>463</v>
+        <v>234</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8888,10 +8969,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>464</v>
+        <v>327</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>464</v>
+        <v>236</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9008,52 +9089,52 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>465</v>
+        <v>328</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>465</v>
+        <v>238</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>466</v>
+        <v>82</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J58" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>467</v>
+        <v>239</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>468</v>
+        <v>240</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>143</v>
+        <v>241</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>152</v>
+        <v>242</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>82</v>
+        <v>300</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>82</v>
@@ -9095,19 +9176,19 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>469</v>
+        <v>244</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>82</v>
@@ -9116,10 +9197,10 @@
         <v>82</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>82</v>
+        <v>245</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>106</v>
+        <v>246</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
@@ -9130,10 +9211,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>470</v>
+        <v>329</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>470</v>
+        <v>248</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9153,19 +9234,19 @@
         <v>82</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>471</v>
+        <v>215</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>472</v>
+        <v>249</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>473</v>
+        <v>250</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>474</v>
+        <v>251</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9215,7 +9296,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>470</v>
+        <v>252</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9224,10 +9305,10 @@
         <v>92</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>475</v>
+        <v>104</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>476</v>
+        <v>105</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>82</v>
@@ -9236,10 +9317,10 @@
         <v>82</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>477</v>
+        <v>253</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>478</v>
+        <v>254</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
@@ -9250,10 +9331,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>479</v>
+        <v>330</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>479</v>
+        <v>256</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9261,7 +9342,7 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>92</v>
@@ -9273,27 +9354,29 @@
         <v>82</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>471</v>
+        <v>115</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>480</v>
+        <v>257</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>481</v>
+        <v>258</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="O60" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" t="s" s="2">
-        <v>82</v>
+        <v>331</v>
       </c>
       <c r="S60" t="s" s="2">
         <v>82</v>
@@ -9335,7 +9418,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>479</v>
+        <v>262</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9344,10 +9427,10 @@
         <v>92</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>475</v>
+        <v>104</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>476</v>
+        <v>105</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>82</v>
@@ -9356,10 +9439,10 @@
         <v>82</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>477</v>
+        <v>263</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>482</v>
+        <v>264</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
@@ -9370,10 +9453,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>483</v>
+        <v>332</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>483</v>
+        <v>266</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9393,22 +9476,22 @@
         <v>82</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>484</v>
+        <v>267</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>485</v>
+        <v>268</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>486</v>
+        <v>259</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>487</v>
+        <v>269</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9433,13 +9516,13 @@
         <v>82</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>488</v>
+        <v>82</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>489</v>
+        <v>82</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>82</v>
@@ -9457,7 +9540,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>483</v>
+        <v>270</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9475,13 +9558,13 @@
         <v>82</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>490</v>
+        <v>82</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>491</v>
+        <v>271</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>407</v>
+        <v>272</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
@@ -9492,10 +9575,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>492</v>
+        <v>333</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>492</v>
+        <v>274</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9506,7 +9589,7 @@
         <v>80</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>82</v>
@@ -9515,22 +9598,22 @@
         <v>82</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>198</v>
+        <v>275</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>493</v>
+        <v>276</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>494</v>
+        <v>277</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>495</v>
+        <v>278</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>496</v>
+        <v>279</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -9555,13 +9638,13 @@
         <v>82</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>312</v>
+        <v>82</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>497</v>
+        <v>82</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>498</v>
+        <v>82</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>82</v>
@@ -9579,13 +9662,13 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>492</v>
+        <v>280</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>104</v>
@@ -9597,13 +9680,13 @@
         <v>82</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>490</v>
+        <v>82</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>491</v>
+        <v>281</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>407</v>
+        <v>282</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -9614,10 +9697,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>499</v>
+        <v>334</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>499</v>
+        <v>284</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9637,22 +9720,22 @@
         <v>82</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>500</v>
+        <v>215</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>501</v>
+        <v>285</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>502</v>
+        <v>286</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>503</v>
+        <v>287</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>504</v>
+        <v>288</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -9701,7 +9784,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>499</v>
+        <v>289</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9713,7 +9796,7 @@
         <v>104</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>505</v>
+        <v>105</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>82</v>
@@ -9722,10 +9805,10 @@
         <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>506</v>
+        <v>290</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>507</v>
+        <v>291</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -9736,18 +9819,18 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>508</v>
+        <v>335</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>508</v>
+        <v>335</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>82</v>
+        <v>336</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>92</v>
@@ -9759,21 +9842,23 @@
         <v>82</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>509</v>
+        <v>337</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>510</v>
+        <v>338</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O64" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>82</v>
       </c>
@@ -9797,13 +9882,13 @@
         <v>82</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>82</v>
+        <v>341</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>82</v>
+        <v>342</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>82</v>
+        <v>343</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>82</v>
@@ -9821,10 +9906,10 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>508</v>
+        <v>335</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>92</v>
@@ -9836,30 +9921,30 @@
         <v>105</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>82</v>
+        <v>344</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>82</v>
+        <v>345</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>477</v>
+        <v>346</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>511</v>
+        <v>347</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>82</v>
+        <v>348</v>
       </c>
       <c r="AP64" t="s" s="2">
-        <v>82</v>
+        <v>349</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>512</v>
+        <v>350</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>512</v>
+        <v>350</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9870,7 +9955,7 @@
         <v>80</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>82</v>
@@ -9882,18 +9967,20 @@
         <v>93</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>513</v>
+        <v>351</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>514</v>
+        <v>352</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>515</v>
+        <v>353</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="O65" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>82</v>
       </c>
@@ -9941,13 +10028,13 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>512</v>
+        <v>350</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>104</v>
@@ -9956,19 +10043,19 @@
         <v>170</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>82</v>
+        <v>356</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>517</v>
+        <v>357</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>518</v>
+        <v>358</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>82</v>
+        <v>359</v>
       </c>
       <c r="AP65" t="s" s="2">
         <v>82</v>
@@ -9976,10 +10063,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>519</v>
+        <v>360</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>519</v>
+        <v>360</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10002,16 +10089,16 @@
         <v>93</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>520</v>
+        <v>361</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>521</v>
+        <v>362</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>522</v>
+        <v>363</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>523</v>
+        <v>364</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -10061,7 +10148,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>519</v>
+        <v>360</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10082,13 +10169,13 @@
         <v>82</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>517</v>
+        <v>346</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>524</v>
+        <v>365</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>82</v>
+        <v>359</v>
       </c>
       <c r="AP66" t="s" s="2">
         <v>82</v>
@@ -10096,21 +10183,21 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>525</v>
+        <v>366</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>525</v>
+        <v>366</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>82</v>
+        <v>367</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>82</v>
@@ -10122,19 +10209,19 @@
         <v>93</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>455</v>
+        <v>368</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>526</v>
+        <v>369</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>527</v>
+        <v>370</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>528</v>
+        <v>371</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>529</v>
+        <v>372</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>82</v>
@@ -10183,34 +10270,34 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>525</v>
+        <v>366</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>82</v>
+        <v>373</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>530</v>
+        <v>374</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>531</v>
+        <v>375</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>82</v>
+        <v>376</v>
       </c>
       <c r="AP67" t="s" s="2">
         <v>82</v>
@@ -10218,14 +10305,14 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>532</v>
+        <v>377</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>532</v>
+        <v>377</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>82</v>
+        <v>378</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -10241,19 +10328,23 @@
         <v>82</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>215</v>
+        <v>379</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>216</v>
+        <v>380</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>82</v>
       </c>
@@ -10301,7 +10392,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>218</v>
+        <v>377</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10310,25 +10401,25 @@
         <v>92</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>82</v>
+        <v>384</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>82</v>
+        <v>385</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>113</v>
+        <v>386</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>82</v>
+        <v>387</v>
       </c>
       <c r="AP68" t="s" s="2">
         <v>82</v>
@@ -10336,21 +10427,21 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>533</v>
+        <v>388</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>533</v>
+        <v>388</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>82</v>
@@ -10359,19 +10450,19 @@
         <v>82</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>140</v>
+        <v>389</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>141</v>
+        <v>390</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>221</v>
+        <v>391</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>143</v>
+        <v>392</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10409,31 +10500,31 @@
         <v>82</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC69" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD69" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>222</v>
+        <v>388</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>82</v>
@@ -10442,13 +10533,13 @@
         <v>82</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>82</v>
+        <v>393</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>106</v>
+        <v>394</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>82</v>
+        <v>395</v>
       </c>
       <c r="AP69" t="s" s="2">
         <v>82</v>
@@ -10456,14 +10547,14 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>534</v>
+        <v>396</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>534</v>
+        <v>396</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>466</v>
+        <v>82</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10476,25 +10567,25 @@
         <v>82</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J70" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>140</v>
+        <v>397</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>467</v>
+        <v>398</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>468</v>
+        <v>399</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>152</v>
+        <v>400</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
@@ -10543,7 +10634,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>469</v>
+        <v>396</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10555,22 +10646,22 @@
         <v>104</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>82</v>
+        <v>401</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>82</v>
+        <v>402</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>106</v>
+        <v>403</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>82</v>
+        <v>404</v>
       </c>
       <c r="AP70" t="s" s="2">
         <v>82</v>
@@ -10578,10 +10669,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>535</v>
+        <v>405</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>535</v>
+        <v>405</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10589,7 +10680,7 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>92</v>
@@ -10604,19 +10695,19 @@
         <v>93</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>198</v>
+        <v>406</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>536</v>
+        <v>407</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>537</v>
+        <v>408</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>538</v>
+        <v>409</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>311</v>
+        <v>410</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>82</v>
@@ -10641,13 +10732,13 @@
         <v>82</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>312</v>
+        <v>82</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>313</v>
+        <v>82</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>314</v>
+        <v>82</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>82</v>
@@ -10665,16 +10756,16 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>535</v>
+        <v>405</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>104</v>
+        <v>411</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>105</v>
@@ -10683,27 +10774,27 @@
         <v>82</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>539</v>
+        <v>412</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>317</v>
+        <v>413</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>318</v>
+        <v>414</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>319</v>
+        <v>82</v>
       </c>
       <c r="AP71" t="s" s="2">
-        <v>82</v>
+        <v>415</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>540</v>
+        <v>416</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>540</v>
+        <v>416</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10723,22 +10814,22 @@
         <v>82</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>377</v>
+        <v>198</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>541</v>
+        <v>417</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>379</v>
+        <v>418</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>542</v>
+        <v>419</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>381</v>
+        <v>420</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
@@ -10763,13 +10854,13 @@
         <v>82</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>82</v>
+        <v>421</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>82</v>
+        <v>422</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>82</v>
+        <v>423</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>82</v>
@@ -10787,7 +10878,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>540</v>
+        <v>416</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10796,7 +10887,7 @@
         <v>92</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>104</v>
+        <v>424</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>105</v>
@@ -10805,38 +10896,38 @@
         <v>82</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>543</v>
+        <v>82</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>384</v>
+        <v>106</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>385</v>
+        <v>425</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP72" t="s" s="2">
-        <v>386</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>544</v>
+        <v>426</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>544</v>
+        <v>426</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>82</v>
+        <v>427</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>82</v>
@@ -10851,16 +10942,16 @@
         <v>198</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>545</v>
+        <v>428</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>546</v>
+        <v>429</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>547</v>
+        <v>430</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>391</v>
+        <v>431</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -10885,13 +10976,13 @@
         <v>82</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>392</v>
+        <v>421</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>393</v>
+        <v>432</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>394</v>
+        <v>433</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>82</v>
@@ -10909,16 +11000,16 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>544</v>
+        <v>426</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>395</v>
+        <v>104</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>105</v>
@@ -10927,31 +11018,31 @@
         <v>82</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>82</v>
+        <v>434</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>106</v>
+        <v>435</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>396</v>
+        <v>436</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP73" t="s" s="2">
-        <v>82</v>
+        <v>437</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>548</v>
+        <v>438</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>548</v>
+        <v>438</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>398</v>
+        <v>82</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10970,19 +11061,19 @@
         <v>82</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>198</v>
+        <v>439</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>399</v>
+        <v>440</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>400</v>
+        <v>441</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>401</v>
+        <v>442</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>402</v>
+        <v>443</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>82</v>
@@ -11007,13 +11098,13 @@
         <v>82</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>392</v>
+        <v>82</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>403</v>
+        <v>82</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>404</v>
+        <v>82</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>82</v>
@@ -11031,7 +11122,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>548</v>
+        <v>438</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11049,27 +11140,27 @@
         <v>82</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>405</v>
+        <v>82</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>406</v>
+        <v>444</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>407</v>
+        <v>445</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP74" t="s" s="2">
-        <v>408</v>
+        <v>82</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>549</v>
+        <v>446</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>549</v>
+        <v>446</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11080,7 +11171,7 @@
         <v>80</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>82</v>
@@ -11092,20 +11183,18 @@
         <v>82</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>83</v>
+        <v>198</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>550</v>
+        <v>447</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>551</v>
+        <v>448</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>459</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>82</v>
       </c>
@@ -11129,13 +11218,13 @@
         <v>82</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>82</v>
+        <v>341</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>82</v>
+        <v>450</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>82</v>
+        <v>451</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>82</v>
@@ -11153,41 +11242,2943 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AO75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP75" t="s" s="2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="P76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AO76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP76" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="O77" s="2"/>
+      <c r="P77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AO77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP77" t="s" s="2">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="O78" s="2"/>
+      <c r="P78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AO78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP78" t="s" s="2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="P79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AO79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP79" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+      <c r="P80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AO80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP80" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O81" s="2"/>
+      <c r="P81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AO81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP81" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="P82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AO82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP82" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="O83" s="2"/>
+      <c r="P83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AO83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP83" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="O84" s="2"/>
+      <c r="P84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AO84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP84" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="P85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q85" s="2"/>
+      <c r="R85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AO85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP85" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="P86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q86" s="2"/>
+      <c r="R86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AO86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP86" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="P87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q87" s="2"/>
+      <c r="R87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AO87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP87" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="O88" s="2"/>
+      <c r="P88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AO88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP88" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="O89" s="2"/>
+      <c r="P89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AO89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP89" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K90" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="AG75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH75" t="s" s="2">
+      <c r="L90" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="O90" s="2"/>
+      <c r="P90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q90" s="2"/>
+      <c r="R90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH90" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AI75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP75" t="s" s="2">
+      <c r="AI90" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="AO90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP90" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="P91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q91" s="2"/>
+      <c r="R91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AO91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP91" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
+      <c r="P92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q92" s="2"/>
+      <c r="R92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AO92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP92" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O93" s="2"/>
+      <c r="P93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q93" s="2"/>
+      <c r="R93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AO93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP93" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="P94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q94" s="2"/>
+      <c r="R94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AO94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP94" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="P95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q95" s="2"/>
+      <c r="R95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AO95" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AP95" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="P96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q96" s="2"/>
+      <c r="R96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AO96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP96" t="s" s="2">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="97" hidden="true">
+      <c r="A97" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="P97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q97" s="2"/>
+      <c r="R97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AO97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP97" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="98" hidden="true">
+      <c r="A98" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="E98" s="2"/>
+      <c r="F98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="O98" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="P98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q98" s="2"/>
+      <c r="R98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AO98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP98" t="s" s="2">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="99" hidden="true">
+      <c r="A99" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="P99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q99" s="2"/>
+      <c r="R99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AO99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP99" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP75">
+  <autoFilter ref="A1:AP99">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11197,7 +14188,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI74">
+  <conditionalFormatting sqref="A2:AI98">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-c-biological-sex.xlsx
+++ b/output/StructureDefinition-c-biological-sex.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T22:15:03+02:00</t>
+    <t>2023-03-28T23:17:42+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-c-biological-sex.xlsx
+++ b/output/StructureDefinition-c-biological-sex.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T23:17:42+02:00</t>
+    <t>2023-03-29T13:43:15+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-c-biological-sex.xlsx
+++ b/output/StructureDefinition-c-biological-sex.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-29T13:43:15+02:00</t>
+    <t>2023-03-30T02:04:17+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-c-biological-sex.xlsx
+++ b/output/StructureDefinition-c-biological-sex.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T02:04:17+02:00</t>
+    <t>2023-03-30T13:05:19+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-c-biological-sex.xlsx
+++ b/output/StructureDefinition-c-biological-sex.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T13:05:19+02:00</t>
+    <t>2023-03-30T15:07:01+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -774,7 +774,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/CodeSystem/umls</t>
+    <t>http://www.nlm.nih.gov/research/umls/</t>
   </si>
   <si>
     <t>Coding.system</t>

--- a/output/StructureDefinition-c-biological-sex.xlsx
+++ b/output/StructureDefinition-c-biological-sex.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T15:07:01+02:00</t>
+    <t>2023-03-30T17:28:47+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-c-biological-sex.xlsx
+++ b/output/StructureDefinition-c-biological-sex.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T17:28:47+02:00</t>
+    <t>2023-03-30T20:16:43+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -774,7 +774,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://www.nlm.nih.gov/research/umls/</t>
+    <t>http://www.nlm.nih.gov/research/umls</t>
   </si>
   <si>
     <t>Coding.system</t>

--- a/output/StructureDefinition-c-biological-sex.xlsx
+++ b/output/StructureDefinition-c-biological-sex.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T20:16:43+02:00</t>
+    <t>2023-03-31T11:28:30+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-c-biological-sex.xlsx
+++ b/output/StructureDefinition-c-biological-sex.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T11:28:30+02:00</t>
+    <t>2023-03-31T15:03:50+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-c-biological-sex.xlsx
+++ b/output/StructureDefinition-c-biological-sex.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T15:03:50+02:00</t>
+    <t>2023-04-02T11:40:39+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
